--- a/Analytics/F1/ShirtsXbookings_f1.xlsx
+++ b/Analytics/F1/ShirtsXbookings_f1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TShirtsXbookings")</t>
   </si>
   <si>
-    <t>SUM("TShirtsXbookings") / 34</t>
+    <t>SUM("TShirtsXbookings") / 10</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>49775.0</v>
+        <v>28195.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>46305.0</v>
+        <v>27805.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>44165.0</v>
+        <v>23985.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>41665.0</v>
+        <v>20460.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>39655.0</v>
+        <v>19315.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>36955.0</v>
+        <v>18980.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>36805.0</v>
+        <v>17670.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>36535.0</v>
+        <v>16900.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>36140.0</v>
+        <v>16890.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>34255.0</v>
+        <v>13175.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>32400.0</v>
+        <v>12990.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>30665.0</v>
+        <v>12970.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>29715.0</v>
+        <v>11840.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>29615.0</v>
+        <v>9465.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>27930.0</v>
+        <v>7675.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>25120.0</v>
+        <v>6590.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>23775.0</v>
+        <v>6550.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>21165.0</v>
+        <v>3830.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>72650.0</v>
+        <v>34190.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>45060.0</v>
+        <v>32940.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>43745.0</v>
+        <v>28715.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>42555.0</v>
+        <v>20850.0</v>
       </c>
     </row>
     <row r="6">
@@ -468,7 +468,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>41435.0</v>
+        <v>20375.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>37895.0</v>
+        <v>18390.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>36550.0</v>
+        <v>16620.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>35515.0</v>
+        <v>12970.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>31455.0</v>
+        <v>12535.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>29680.0</v>
+        <v>12240.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>29335.0</v>
+        <v>11060.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>27400.0</v>
+        <v>10895.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>27120.0</v>
+        <v>8790.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>26570.0</v>
+        <v>8590.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>26150.0</v>
+        <v>7410.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>25870.0</v>
+        <v>6790.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>24145.0</v>
+        <v>6120.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>19510.0</v>
+        <v>5805.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>96425.0</v>
+        <v>51860.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2836.029411764706</v>
+        <v>5186.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>94835.0</v>
+        <v>48030.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2789.264705882353</v>
+        <v>4803.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>83100.0</v>
+        <v>44835.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2444.1176470588234</v>
+        <v>4483.5</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>79360.0</v>
+        <v>40835.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2334.1176470588234</v>
+        <v>4083.5</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>73425.0</v>
+        <v>40435.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2159.5588235294117</v>
+        <v>4043.5</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>71675.0</v>
+        <v>39490.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2108.0882352941176</v>
+        <v>3949.0</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>70735.0</v>
+        <v>34595.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2080.4411764705883</v>
+        <v>3459.5</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>69335.0</v>
+        <v>33510.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2039.264705882353</v>
+        <v>3351.0</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>67990.0</v>
+        <v>31380.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1999.7058823529412</v>
+        <v>3138.0</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>67915.0</v>
+        <v>29870.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1997.5</v>
+        <v>2987.0</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>66165.0</v>
+        <v>25505.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1946.0294117647059</v>
+        <v>2550.5</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>63590.0</v>
+        <v>25100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1870.2941176470588</v>
+        <v>2510.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>63105.0</v>
+        <v>21765.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1856.0294117647059</v>
+        <v>2176.5</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>63015.0</v>
+        <v>18570.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1853.3823529411766</v>
+        <v>1857.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>58065.0</v>
+        <v>17650.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1707.7941176470588</v>
+        <v>1765.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>55650.0</v>
+        <v>17645.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1636.764705882353</v>
+        <v>1764.5</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>55585.0</v>
+        <v>16875.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1634.8529411764705</v>
+        <v>1687.5</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>45310.0</v>
+        <v>12620.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1332.6470588235295</v>
+        <v>1262.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/F1/ShirtsXbookings_f1.xlsx
+++ b/Analytics/F1/ShirtsXbookings_f1.xlsx
@@ -79,13 +79,16 @@
     <t>Angers</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Montpellier</t>
+    <t>Paris SG</t>
   </si>
   <si>
     <t>Nice</t>
@@ -97,21 +100,21 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t>Paris SG</t>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>St Etienne</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>28195.0</v>
+        <v>34165.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>27805.0</v>
+        <v>32870.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>23985.0</v>
+        <v>29715.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>20460.0</v>
+        <v>26905.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>19315.0</v>
+        <v>26320.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>18980.0</v>
+        <v>25565.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>17670.0</v>
+        <v>25390.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>16900.0</v>
+        <v>22775.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>16890.0</v>
+        <v>21300.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>13175.0</v>
+        <v>18070.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>12990.0</v>
+        <v>16980.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>12970.0</v>
+        <v>15610.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>11840.0</v>
+        <v>15055.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>9465.0</v>
+        <v>13870.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>7675.0</v>
+        <v>13290.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>6590.0</v>
+        <v>12515.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>6550.0</v>
+        <v>10550.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>3830.0</v>
+        <v>9960.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>34190.0</v>
+        <v>40830.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>32940.0</v>
+        <v>36040.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>28715.0</v>
+        <v>32315.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>20850.0</v>
+        <v>27130.0</v>
       </c>
     </row>
     <row r="6">
@@ -468,7 +468,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>20375.0</v>
+        <v>25810.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>18390.0</v>
+        <v>24655.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>16620.0</v>
+        <v>24200.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>12970.0</v>
+        <v>19945.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>12535.0</v>
+        <v>17140.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>12240.0</v>
+        <v>16020.0</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>11060.0</v>
+        <v>15525.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>10895.0</v>
+        <v>14850.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>8790.0</v>
+        <v>14640.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>8590.0</v>
+        <v>13850.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>7410.0</v>
+        <v>13425.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>6790.0</v>
+        <v>12030.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>6120.0</v>
+        <v>11610.0</v>
       </c>
     </row>
     <row r="19">
@@ -611,7 +611,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>5805.0</v>
+        <v>10890.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>51860.0</v>
+        <v>63605.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5186.0</v>
+        <v>6360.5</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>48030.0</v>
+        <v>57880.0</v>
       </c>
       <c r="D3" t="n">
-        <v>4803.0</v>
+        <v>5788.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>44835.0</v>
+        <v>57525.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4483.5</v>
+        <v>5752.5</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>40835.0</v>
+        <v>52715.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4083.5</v>
+        <v>5271.5</v>
       </c>
     </row>
     <row r="6">
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>40435.0</v>
+        <v>49015.0</v>
       </c>
       <c r="D6" t="n">
-        <v>4043.5</v>
+        <v>4901.5</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>39490.0</v>
+        <v>46000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3949.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>34595.0</v>
+        <v>45200.0</v>
       </c>
       <c r="D8" t="n">
-        <v>3459.5</v>
+        <v>4520.0</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>33510.0</v>
+        <v>44355.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3351.0</v>
+        <v>4435.5</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>31380.0</v>
+        <v>43460.0</v>
       </c>
       <c r="D10" t="n">
-        <v>3138.0</v>
+        <v>4346.0</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>29870.0</v>
+        <v>41410.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2987.0</v>
+        <v>4141.0</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>25505.0</v>
+        <v>41245.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2550.5</v>
+        <v>4124.5</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>25100.0</v>
+        <v>41180.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2510.0</v>
+        <v>4118.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>21765.0</v>
+        <v>28040.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2176.5</v>
+        <v>2804.0</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>18570.0</v>
+        <v>27720.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1857.0</v>
+        <v>2772.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>17650.0</v>
+        <v>27640.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1765.0</v>
+        <v>2764.0</v>
       </c>
     </row>
     <row r="17">
@@ -857,10 +857,10 @@
         <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>17645.0</v>
+        <v>25945.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1764.5</v>
+        <v>2594.5</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>16875.0</v>
+        <v>24900.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1687.5</v>
+        <v>2490.0</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>12620.0</v>
+        <v>23975.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1262.0</v>
+        <v>2397.5</v>
       </c>
     </row>
   </sheetData>
